--- a/ds/turmas/1DES_A/frequencia-2-A.xlsx
+++ b/ds/turmas/1DES_A/frequencia-2-A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\1DES_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8844FE3C-B659-4845-BED8-A17FE3690FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6AF738-C8BD-4948-98ED-25D7E7BB90B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,29 +16,17 @@
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
     <sheet name="alunos" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -225,17 +213,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -528,7 +506,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,8 +526,12 @@
       <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -651,6 +633,33 @@
       <c r="E2" s="1">
         <v>46051</v>
       </c>
+      <c r="F2" s="1">
+        <v>46055</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
@@ -711,6 +720,9 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
         <v>33</v>
       </c>
       <c r="AU3" s="2"/>
@@ -807,6 +819,9 @@
       <c r="E4" t="s">
         <v>33</v>
       </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
@@ -901,6 +916,9 @@
       <c r="E5" t="s">
         <v>33</v>
       </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
@@ -995,6 +1013,9 @@
       <c r="E6" t="s">
         <v>33</v>
       </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
@@ -1089,6 +1110,9 @@
       <c r="E7" t="s">
         <v>33</v>
       </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
@@ -1183,6 +1207,9 @@
       <c r="E8" t="s">
         <v>33</v>
       </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
@@ -1277,6 +1304,9 @@
       <c r="E9" t="s">
         <v>33</v>
       </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -1371,6 +1401,9 @@
       <c r="E10" t="s">
         <v>33</v>
       </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -1465,6 +1498,9 @@
       <c r="E11" t="s">
         <v>33</v>
       </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
@@ -1559,6 +1595,9 @@
       <c r="E12" t="s">
         <v>33</v>
       </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
@@ -1653,6 +1692,9 @@
       <c r="E13" t="s">
         <v>33</v>
       </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
@@ -1747,6 +1789,9 @@
       <c r="E14" t="s">
         <v>33</v>
       </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
@@ -1841,6 +1886,9 @@
       <c r="E15" t="s">
         <v>33</v>
       </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
@@ -1935,6 +1983,9 @@
       <c r="E16" t="s">
         <v>33</v>
       </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
@@ -2029,6 +2080,9 @@
       <c r="E17" t="s">
         <v>33</v>
       </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
@@ -2123,6 +2177,9 @@
       <c r="E18" t="s">
         <v>33</v>
       </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
@@ -2217,6 +2274,9 @@
       <c r="E19" t="s">
         <v>33</v>
       </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
@@ -2311,6 +2371,9 @@
       <c r="E20" t="s">
         <v>33</v>
       </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
@@ -2405,6 +2468,9 @@
       <c r="E21" t="s">
         <v>33</v>
       </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
@@ -2499,6 +2565,9 @@
       <c r="E22" t="s">
         <v>33</v>
       </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
@@ -2593,6 +2662,9 @@
       <c r="E23" t="s">
         <v>33</v>
       </c>
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
@@ -2685,7 +2757,10 @@
         <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
@@ -2779,7 +2854,10 @@
         <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
+        <v>34</v>
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
@@ -2875,6 +2953,9 @@
       <c r="E26" t="s">
         <v>33</v>
       </c>
+      <c r="F26" t="s">
+        <v>33</v>
+      </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
@@ -2969,6 +3050,9 @@
       <c r="E27" t="s">
         <v>33</v>
       </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
@@ -3063,6 +3147,9 @@
       <c r="E28" t="s">
         <v>33</v>
       </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
@@ -3157,6 +3244,9 @@
       <c r="E29" t="s">
         <v>33</v>
       </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
@@ -3251,6 +3341,9 @@
       <c r="E30" t="s">
         <v>33</v>
       </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
@@ -3345,6 +3438,9 @@
       <c r="E31" t="s">
         <v>33</v>
       </c>
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
@@ -3439,6 +3535,9 @@
       <c r="E32" t="s">
         <v>33</v>
       </c>
+      <c r="F32" t="s">
+        <v>33</v>
+      </c>
       <c r="AU32" s="2"/>
       <c r="AV32" s="2"/>
       <c r="AW32" s="2"/>
@@ -3520,7 +3619,7 @@
     <sortCondition ref="B3:B32"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="BE3:DG3 D3:AZ3 BB3:BB22 BE4:BJ10 BK4:DG32 F11:BA22 BC11:BJ22 F23:BJ23 F4:AZ10 D4:E23 D24:BJ32">
+  <conditionalFormatting sqref="D3:AZ3 BE3:DG3 BB3:BB22 F4:AZ10 BE4:BJ10 D4:E23 BK4:DG32 F11:BA22 BC11:BJ22 F23:BJ23 D24:BJ32">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/ds/turmas/1DES_A/frequencia-2-A.xlsx
+++ b/ds/turmas/1DES_A/frequencia-2-A.xlsx
@@ -8,25 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\1DES_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6AF738-C8BD-4948-98ED-25D7E7BB90B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B5674D-8140-4473-9A71-AB24F4CF7275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
     <sheet name="alunos" sheetId="2" r:id="rId2"/>
+    <sheet name="vistos" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -199,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -208,6 +220,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,7 +519,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3634,7 +3647,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B31"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3807,4 +3820,209 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4DDCA2-EB43-4FE7-A5F4-0E4DC176FDD0}">
+  <dimension ref="A2:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>alunos!B2</f>
+        <v>Ana Beatriz Alves de Lima</v>
+      </c>
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>alunos!B3</f>
+        <v>Bianca Giovedy Pagotto</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>alunos!B4</f>
+        <v>Breno Frazão Callegari</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>alunos!B5</f>
+        <v>Davi Cruz Oliveira</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>alunos!B6</f>
+        <v>Eduardo Moretti Varotti</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>alunos!B7</f>
+        <v>Enzo Matanovic</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>alunos!B8</f>
+        <v>Gabriela Leticia da Silva</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>alunos!B9</f>
+        <v>Geovanna Martins Bertuol</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>alunos!B10</f>
+        <v>Giulia de Godoi Silveira</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>alunos!B11</f>
+        <v>Gustavo Ferelli</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>alunos!B12</f>
+        <v>Heitor Dorigan de Angeli</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>alunos!B13</f>
+        <v>Helena Politti Rossi</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>alunos!B14</f>
+        <v>Isabela Marchiori Ferreira</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>alunos!B15</f>
+        <v>Isabelle Caroline Vizeu de Salles</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>alunos!B16</f>
+        <v>Leandro Imenes de Oliveira</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>alunos!B17</f>
+        <v>Letícia Aparecida Pinto de Souza</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>alunos!B18</f>
+        <v>Luana Gabrielle de Oliveira</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>alunos!B19</f>
+        <v>Marina Henrique Moretti</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>alunos!B20</f>
+        <v>Matheus Dorigan Paiato</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>alunos!B21</f>
+        <v>Maycon Silva Gonçalves de Lima</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>alunos!B22</f>
+        <v>Nicolas Augusto dos Reis Lira</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>alunos!B23</f>
+        <v>Otávio Augusto Barbosa</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>alunos!B24</f>
+        <v>Otávio Zaneti Ramos</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>alunos!B25</f>
+        <v>Pedro Henrique Souza Guarizo</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>alunos!B26</f>
+        <v>Renan Pavan Fazullo</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>alunos!B27</f>
+        <v>Sara de Paula Souza</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>alunos!B28</f>
+        <v>Sofia Ohashi Faria</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>alunos!B29</f>
+        <v>Tobias Gabriel Bueno de Godoi</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>alunos!B30</f>
+        <v>Víctor Henrique Santana Alves</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>alunos!B31</f>
+        <v>Vitória Bueno da Silva</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ds/turmas/1DES_A/frequencia-2-A.xlsx
+++ b/ds/turmas/1DES_A/frequencia-2-A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\1DES_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B5674D-8140-4473-9A71-AB24F4CF7275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B884E326-C9B5-4242-8B49-8E40F09B9F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -211,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -220,7 +220,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,7 +518,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +648,9 @@
       <c r="F2" s="1">
         <v>46055</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1">
+        <v>46057</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -736,6 +737,9 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
         <v>33</v>
       </c>
       <c r="AU3" s="2"/>
@@ -835,6 +839,9 @@
       <c r="F4" t="s">
         <v>33</v>
       </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
@@ -932,6 +939,9 @@
       <c r="F5" t="s">
         <v>33</v>
       </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
@@ -1029,6 +1039,9 @@
       <c r="F6" t="s">
         <v>33</v>
       </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
@@ -1126,6 +1139,9 @@
       <c r="F7" t="s">
         <v>33</v>
       </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
@@ -1223,6 +1239,9 @@
       <c r="F8" t="s">
         <v>34</v>
       </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
@@ -1320,6 +1339,9 @@
       <c r="F9" t="s">
         <v>33</v>
       </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -1417,6 +1439,9 @@
       <c r="F10" t="s">
         <v>33</v>
       </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -1514,6 +1539,9 @@
       <c r="F11" t="s">
         <v>33</v>
       </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
@@ -1611,6 +1639,9 @@
       <c r="F12" t="s">
         <v>33</v>
       </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
@@ -1708,6 +1739,9 @@
       <c r="F13" t="s">
         <v>33</v>
       </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
@@ -1805,6 +1839,9 @@
       <c r="F14" t="s">
         <v>33</v>
       </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
@@ -1902,6 +1939,9 @@
       <c r="F15" t="s">
         <v>33</v>
       </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
@@ -1999,6 +2039,9 @@
       <c r="F16" t="s">
         <v>33</v>
       </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
@@ -2096,6 +2139,9 @@
       <c r="F17" t="s">
         <v>33</v>
       </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
@@ -2193,6 +2239,9 @@
       <c r="F18" t="s">
         <v>33</v>
       </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
@@ -2290,6 +2339,9 @@
       <c r="F19" t="s">
         <v>33</v>
       </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
@@ -2387,6 +2439,9 @@
       <c r="F20" t="s">
         <v>33</v>
       </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
@@ -2484,6 +2539,9 @@
       <c r="F21" t="s">
         <v>33</v>
       </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
@@ -2581,6 +2639,9 @@
       <c r="F22" t="s">
         <v>33</v>
       </c>
+      <c r="G22" t="s">
+        <v>33</v>
+      </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
@@ -2678,6 +2739,9 @@
       <c r="F23" t="s">
         <v>33</v>
       </c>
+      <c r="G23" t="s">
+        <v>33</v>
+      </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
@@ -2775,6 +2839,9 @@
       <c r="F24" t="s">
         <v>33</v>
       </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
@@ -2872,6 +2939,9 @@
       <c r="F25" t="s">
         <v>34</v>
       </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
@@ -2969,6 +3039,9 @@
       <c r="F26" t="s">
         <v>33</v>
       </c>
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
@@ -3066,6 +3139,9 @@
       <c r="F27" t="s">
         <v>33</v>
       </c>
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
@@ -3163,6 +3239,9 @@
       <c r="F28" t="s">
         <v>33</v>
       </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
@@ -3260,6 +3339,9 @@
       <c r="F29" t="s">
         <v>33</v>
       </c>
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
@@ -3357,6 +3439,9 @@
       <c r="F30" t="s">
         <v>33</v>
       </c>
+      <c r="G30" t="s">
+        <v>33</v>
+      </c>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
@@ -3454,6 +3539,9 @@
       <c r="F31" t="s">
         <v>33</v>
       </c>
+      <c r="G31" t="s">
+        <v>33</v>
+      </c>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
@@ -3551,6 +3639,9 @@
       <c r="F32" t="s">
         <v>33</v>
       </c>
+      <c r="G32" t="s">
+        <v>33</v>
+      </c>
       <c r="AU32" s="2"/>
       <c r="AV32" s="2"/>
       <c r="AW32" s="2"/>
@@ -3824,7 +3915,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4DDCA2-EB43-4FE7-A5F4-0E4DC176FDD0}">
-  <dimension ref="A2:B32"/>
+  <dimension ref="A2:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
@@ -3835,91 +3926,90 @@
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>alunos!B2</f>
         <v>Ana Beatriz Alves de Lima</v>
       </c>
-      <c r="B3" s="8"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>alunos!B3</f>
         <v>Bianca Giovedy Pagotto</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>alunos!B4</f>
         <v>Breno Frazão Callegari</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>alunos!B5</f>
         <v>Davi Cruz Oliveira</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>alunos!B6</f>
         <v>Eduardo Moretti Varotti</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>alunos!B7</f>
         <v>Enzo Matanovic</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>alunos!B8</f>
         <v>Gabriela Leticia da Silva</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>alunos!B9</f>
         <v>Geovanna Martins Bertuol</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>alunos!B10</f>
         <v>Giulia de Godoi Silveira</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>alunos!B11</f>
         <v>Gustavo Ferelli</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>alunos!B12</f>
         <v>Heitor Dorigan de Angeli</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>alunos!B13</f>
         <v>Helena Politti Rossi</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>alunos!B14</f>
         <v>Isabela Marchiori Ferreira</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>alunos!B15</f>
         <v>Isabelle Caroline Vizeu de Salles</v>

--- a/ds/turmas/1DES_A/frequencia-2-A.xlsx
+++ b/ds/turmas/1DES_A/frequencia-2-A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\1DES_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B884E326-C9B5-4242-8B49-8E40F09B9F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AB29D3-8B8F-49F3-906D-171E3975F5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="39">
   <si>
     <t>Aluno</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>QUI</t>
+  </si>
+  <si>
+    <t>Giuseppe de Moraes Vieira</t>
+  </si>
+  <si>
+    <t>Samyra Leite da Silva Ferreira</t>
   </si>
 </sst>
 </file>
@@ -512,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DS32"/>
+  <dimension ref="A1:DS34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3718,12 +3724,44 @@
       <c r="DR32" s="5"/>
       <c r="DS32" s="5"/>
     </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>alunos!A32</f>
+        <v>0</v>
+      </c>
+      <c r="B33" t="str">
+        <f>alunos!B32</f>
+        <v>Giuseppe de Moraes Vieira</v>
+      </c>
+      <c r="C33">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>alunos!A33</f>
+        <v>0</v>
+      </c>
+      <c r="B34" t="str">
+        <f>alunos!B33</f>
+        <v>Samyra Leite da Silva Ferreira</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B32">
     <sortCondition ref="B3:B32"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="D3:AZ3 BE3:DG3 BB3:BB22 F4:AZ10 BE4:BJ10 D4:E23 BK4:DG32 F11:BA22 BC11:BJ22 F23:BJ23 D24:BJ32">
+  <conditionalFormatting sqref="D3:AZ3 BE3:DG3 BB3:BB22 F4:AZ10 BE4:BJ10 D4:E23 BK4:DG32 F11:BA22 BC11:BJ22 F23:BJ23 D24:BJ32 G33:G34">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -3735,10 +3773,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA43B27-548D-428E-B1BF-5E790279A96A}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3905,6 +3943,16 @@
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/ds/turmas/1DES_A/frequencia-2-A.xlsx
+++ b/ds/turmas/1DES_A/frequencia-2-A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\1DES_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AB29D3-8B8F-49F3-906D-171E3975F5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FD6D64-F3E1-4D8C-BD78-F5B4FF9A8F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="40">
   <si>
     <t>Aluno</t>
   </si>
@@ -156,6 +156,9 @@
   <si>
     <t>Samyra Leite da Silva Ferreira</t>
   </si>
+  <si>
+    <t>LER ATV01</t>
+  </si>
 </sst>
 </file>
 
@@ -204,7 +207,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -212,12 +215,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -226,6 +244,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,11 +541,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DS34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B2:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3963,10 +3984,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4DDCA2-EB43-4FE7-A5F4-0E4DC176FDD0}">
-  <dimension ref="A2:A32"/>
+  <dimension ref="A2:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3974,186 +3995,195 @@
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>alunos!B2</f>
         <v>Ana Beatriz Alves de Lima</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>alunos!B3</f>
         <v>Bianca Giovedy Pagotto</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>alunos!B4</f>
         <v>Breno Frazão Callegari</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>alunos!B5</f>
         <v>Davi Cruz Oliveira</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>alunos!B6</f>
         <v>Eduardo Moretti Varotti</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>alunos!B7</f>
         <v>Enzo Matanovic</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>alunos!B8</f>
         <v>Gabriela Leticia da Silva</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>alunos!B9</f>
         <v>Geovanna Martins Bertuol</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>alunos!B10</f>
         <v>Giulia de Godoi Silveira</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>alunos!B11</f>
         <v>Gustavo Ferelli</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>alunos!B12</f>
         <v>Heitor Dorigan de Angeli</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>alunos!B13</f>
         <v>Helena Politti Rossi</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>alunos!B14</f>
         <v>Isabela Marchiori Ferreira</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>alunos!B15</f>
         <v>Isabelle Caroline Vizeu de Salles</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>alunos!B16</f>
         <v>Leandro Imenes de Oliveira</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>alunos!B17</f>
         <v>Letícia Aparecida Pinto de Souza</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>alunos!B18</f>
         <v>Luana Gabrielle de Oliveira</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>alunos!B19</f>
         <v>Marina Henrique Moretti</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>alunos!B20</f>
         <v>Matheus Dorigan Paiato</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>alunos!B21</f>
         <v>Maycon Silva Gonçalves de Lima</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>alunos!B22</f>
         <v>Nicolas Augusto dos Reis Lira</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>alunos!B23</f>
         <v>Otávio Augusto Barbosa</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>alunos!B24</f>
         <v>Otávio Zaneti Ramos</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>alunos!B25</f>
         <v>Pedro Henrique Souza Guarizo</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>alunos!B26</f>
         <v>Renan Pavan Fazullo</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>alunos!B27</f>
         <v>Sara de Paula Souza</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>alunos!B28</f>
         <v>Sofia Ohashi Faria</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>alunos!B29</f>
         <v>Tobias Gabriel Bueno de Godoi</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>alunos!B30</f>
         <v>Víctor Henrique Santana Alves</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>alunos!B31</f>
         <v>Vitória Bueno da Silva</v>

--- a/ds/turmas/1DES_A/frequencia-2-A.xlsx
+++ b/ds/turmas/1DES_A/frequencia-2-A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\1DES_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FD6D64-F3E1-4D8C-BD78-F5B4FF9A8F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556C5263-F28A-4074-BBAD-177BC4880AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="41">
   <si>
     <t>Aluno</t>
   </si>
@@ -157,7 +157,10 @@
     <t>Samyra Leite da Silva Ferreira</t>
   </si>
   <si>
-    <t>LER ATV01</t>
+    <t>LER</t>
+  </si>
+  <si>
+    <t>ATV01</t>
   </si>
 </sst>
 </file>
@@ -207,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -215,27 +218,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -244,9 +232,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3984,23 +3969,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4DDCA2-EB43-4FE7-A5F4-0E4DC176FDD0}">
-  <dimension ref="A2:B32"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>39</v>
+      <c r="B2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4083,6 +4074,9 @@
         <f>alunos!B14</f>
         <v>Isabela Marchiori Ferreira</v>
       </c>
+      <c r="B15">
+        <v>75</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
@@ -4115,6 +4109,9 @@
       <c r="A20" t="str">
         <f>alunos!B19</f>
         <v>Marina Henrique Moretti</v>
+      </c>
+      <c r="B20">
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">

--- a/ds/turmas/1DES_A/frequencia-2-A.xlsx
+++ b/ds/turmas/1DES_A/frequencia-2-A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\1DES_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556C5263-F28A-4074-BBAD-177BC4880AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A0A647-0A87-40FA-9AD7-D8CAF51919D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="39">
   <si>
     <t>Aluno</t>
   </si>
@@ -155,12 +155,6 @@
   </si>
   <si>
     <t>Samyra Leite da Silva Ferreira</t>
-  </si>
-  <si>
-    <t>LER</t>
-  </si>
-  <si>
-    <t>ATV01</t>
   </si>
 </sst>
 </file>
@@ -526,11 +520,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DS34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="B2:B34"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3782,7 +3776,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3969,218 +3963,197 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4DDCA2-EB43-4FE7-A5F4-0E4DC176FDD0}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A2:A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>alunos!B2</f>
         <v>Ana Beatriz Alves de Lima</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>alunos!B3</f>
         <v>Bianca Giovedy Pagotto</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>alunos!B4</f>
         <v>Breno Frazão Callegari</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>alunos!B5</f>
         <v>Davi Cruz Oliveira</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>alunos!B6</f>
         <v>Eduardo Moretti Varotti</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>alunos!B7</f>
         <v>Enzo Matanovic</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>alunos!B8</f>
         <v>Gabriela Leticia da Silva</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>alunos!B9</f>
         <v>Geovanna Martins Bertuol</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>alunos!B10</f>
         <v>Giulia de Godoi Silveira</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>alunos!B11</f>
         <v>Gustavo Ferelli</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>alunos!B12</f>
         <v>Heitor Dorigan de Angeli</v>
       </c>
-      <c r="B13">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>alunos!B13</f>
         <v>Helena Politti Rossi</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>alunos!B14</f>
         <v>Isabela Marchiori Ferreira</v>
       </c>
-      <c r="B15">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>alunos!B15</f>
         <v>Isabelle Caroline Vizeu de Salles</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>alunos!B16</f>
         <v>Leandro Imenes de Oliveira</v>
       </c>
-      <c r="B17">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>alunos!B17</f>
         <v>Letícia Aparecida Pinto de Souza</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>alunos!B18</f>
         <v>Luana Gabrielle de Oliveira</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>alunos!B19</f>
         <v>Marina Henrique Moretti</v>
       </c>
-      <c r="B20">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>alunos!B20</f>
         <v>Matheus Dorigan Paiato</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>alunos!B21</f>
         <v>Maycon Silva Gonçalves de Lima</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>alunos!B22</f>
         <v>Nicolas Augusto dos Reis Lira</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>alunos!B23</f>
         <v>Otávio Augusto Barbosa</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>alunos!B24</f>
         <v>Otávio Zaneti Ramos</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>alunos!B25</f>
         <v>Pedro Henrique Souza Guarizo</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>alunos!B26</f>
         <v>Renan Pavan Fazullo</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>alunos!B27</f>
         <v>Sara de Paula Souza</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>alunos!B28</f>
         <v>Sofia Ohashi Faria</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>alunos!B29</f>
         <v>Tobias Gabriel Bueno de Godoi</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>alunos!B30</f>
         <v>Víctor Henrique Santana Alves</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>alunos!B31</f>
         <v>Vitória Bueno da Silva</v>

--- a/ds/turmas/1DES_A/frequencia-2-A.xlsx
+++ b/ds/turmas/1DES_A/frequencia-2-A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\1DES_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A0A647-0A87-40FA-9AD7-D8CAF51919D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C450F0F4-4F65-491B-9A4B-E0A1944A86C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>Eduardo Moretti Varotti</t>
-  </si>
-  <si>
-    <t>Enzo Matanovic</t>
   </si>
   <si>
     <t>Gabriela Leticia da Silva</t>
@@ -115,9 +112,6 @@
     <t>Otávio Augusto Barbosa</t>
   </si>
   <si>
-    <t>Otávio Zaneti Ramos</t>
-  </si>
-  <si>
     <t>Pedro Henrique Souza Guarizo</t>
   </si>
   <si>
@@ -155,6 +149,9 @@
   </si>
   <si>
     <t>Samyra Leite da Silva Ferreira</t>
+  </si>
+  <si>
+    <t>Carolina da Silva Santos</t>
   </si>
 </sst>
 </file>
@@ -518,13 +515,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DS34"/>
+  <dimension ref="A1:DS33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,18 +536,20 @@
   <sheetData>
     <row r="1" spans="1:123" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -657,7 +656,9 @@
       <c r="G2" s="1">
         <v>46057</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1">
+        <v>46063</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -737,16 +738,19 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
@@ -837,16 +841,19 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
@@ -937,16 +944,19 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
@@ -1037,16 +1047,19 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
@@ -1137,16 +1150,19 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
@@ -1231,22 +1247,25 @@
       </c>
       <c r="B8" t="str">
         <f>alunos!B7</f>
-        <v>Enzo Matanovic</v>
+        <v>Gabriela Leticia da Silva</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
@@ -1331,22 +1350,25 @@
       </c>
       <c r="B9" t="str">
         <f>alunos!B8</f>
-        <v>Gabriela Leticia da Silva</v>
+        <v>Geovanna Martins Bertuol</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
@@ -1431,22 +1453,25 @@
       </c>
       <c r="B10" t="str">
         <f>alunos!B9</f>
-        <v>Geovanna Martins Bertuol</v>
+        <v>Giulia de Godoi Silveira</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
@@ -1531,22 +1556,25 @@
       </c>
       <c r="B11" t="str">
         <f>alunos!B10</f>
-        <v>Giulia de Godoi Silveira</v>
+        <v>Gustavo Ferelli</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
@@ -1624,29 +1652,32 @@
       <c r="DR11" s="5"/>
       <c r="DS11" s="5"/>
     </row>
-    <row r="12" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>alunos!A11</f>
         <v>0</v>
       </c>
       <c r="B12" t="str">
         <f>alunos!B11</f>
-        <v>Gustavo Ferelli</v>
+        <v>Heitor Dorigan de Angeli</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
@@ -1724,29 +1755,32 @@
       <c r="DR12" s="5"/>
       <c r="DS12" s="5"/>
     </row>
-    <row r="13" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>alunos!A12</f>
         <v>0</v>
       </c>
       <c r="B13" t="str">
         <f>alunos!B12</f>
-        <v>Heitor Dorigan de Angeli</v>
+        <v>Helena Politti Rossi</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
@@ -1831,22 +1865,25 @@
       </c>
       <c r="B14" t="str">
         <f>alunos!B13</f>
-        <v>Helena Politti Rossi</v>
+        <v>Isabela Marchiori Ferreira</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
@@ -1931,22 +1968,25 @@
       </c>
       <c r="B15" t="str">
         <f>alunos!B14</f>
-        <v>Isabela Marchiori Ferreira</v>
+        <v>Isabelle Caroline Vizeu de Salles</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>31</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
@@ -2031,22 +2071,25 @@
       </c>
       <c r="B16" t="str">
         <f>alunos!B15</f>
-        <v>Isabelle Caroline Vizeu de Salles</v>
+        <v>Leandro Imenes de Oliveira</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
@@ -2131,22 +2174,25 @@
       </c>
       <c r="B17" t="str">
         <f>alunos!B16</f>
-        <v>Leandro Imenes de Oliveira</v>
+        <v>Letícia Aparecida Pinto de Souza</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
@@ -2231,22 +2277,25 @@
       </c>
       <c r="B18" t="str">
         <f>alunos!B17</f>
-        <v>Letícia Aparecida Pinto de Souza</v>
+        <v>Luana Gabrielle de Oliveira</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
+        <v>31</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
@@ -2331,22 +2380,25 @@
       </c>
       <c r="B19" t="str">
         <f>alunos!B18</f>
-        <v>Luana Gabrielle de Oliveira</v>
+        <v>Marina Henrique Moretti</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H19" t="s">
+        <v>31</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
@@ -2431,22 +2483,25 @@
       </c>
       <c r="B20" t="str">
         <f>alunos!B19</f>
-        <v>Marina Henrique Moretti</v>
+        <v>Matheus Dorigan Paiato</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H20" t="s">
+        <v>31</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
@@ -2531,22 +2586,25 @@
       </c>
       <c r="B21" t="str">
         <f>alunos!B20</f>
-        <v>Matheus Dorigan Paiato</v>
+        <v>Maycon Silva Gonçalves de Lima</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H21" t="s">
+        <v>31</v>
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
@@ -2631,22 +2689,25 @@
       </c>
       <c r="B22" t="str">
         <f>alunos!B21</f>
-        <v>Maycon Silva Gonçalves de Lima</v>
+        <v>Nicolas Augusto dos Reis Lira</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H22" t="s">
+        <v>31</v>
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
@@ -2731,22 +2792,25 @@
       </c>
       <c r="B23" t="str">
         <f>alunos!B22</f>
-        <v>Nicolas Augusto dos Reis Lira</v>
+        <v>Otávio Augusto Barbosa</v>
       </c>
       <c r="C23">
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H23" t="s">
+        <v>31</v>
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
@@ -2831,22 +2895,25 @@
       </c>
       <c r="B24" t="str">
         <f>alunos!B23</f>
-        <v>Otávio Augusto Barbosa</v>
+        <v>Pedro Henrique Souza Guarizo</v>
       </c>
       <c r="C24">
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H24" t="s">
+        <v>31</v>
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
@@ -2931,22 +2998,25 @@
       </c>
       <c r="B25" t="str">
         <f>alunos!B24</f>
-        <v>Otávio Zaneti Ramos</v>
+        <v>Renan Pavan Fazullo</v>
       </c>
       <c r="C25">
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="H25" t="s">
+        <v>31</v>
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
@@ -3031,22 +3101,25 @@
       </c>
       <c r="B26" t="str">
         <f>alunos!B25</f>
-        <v>Pedro Henrique Souza Guarizo</v>
+        <v>Sara de Paula Souza</v>
       </c>
       <c r="C26">
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
+        <v>31</v>
       </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
@@ -3131,22 +3204,25 @@
       </c>
       <c r="B27" t="str">
         <f>alunos!B26</f>
-        <v>Renan Pavan Fazullo</v>
+        <v>Sofia Ohashi Faria</v>
       </c>
       <c r="C27">
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H27" t="s">
+        <v>31</v>
       </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
@@ -3231,22 +3307,25 @@
       </c>
       <c r="B28" t="str">
         <f>alunos!B27</f>
-        <v>Sara de Paula Souza</v>
+        <v>Tobias Gabriel Bueno de Godoi</v>
       </c>
       <c r="C28">
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H28" t="s">
+        <v>31</v>
       </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
@@ -3331,22 +3410,25 @@
       </c>
       <c r="B29" t="str">
         <f>alunos!B28</f>
-        <v>Sofia Ohashi Faria</v>
+        <v>Víctor Henrique Santana Alves</v>
       </c>
       <c r="C29">
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H29" t="s">
+        <v>31</v>
       </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
@@ -3431,22 +3513,25 @@
       </c>
       <c r="B30" t="str">
         <f>alunos!B29</f>
-        <v>Tobias Gabriel Bueno de Godoi</v>
+        <v>Vitória Bueno da Silva</v>
       </c>
       <c r="C30">
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H30" t="s">
+        <v>31</v>
       </c>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
@@ -3531,98 +3616,17 @@
       </c>
       <c r="B31" t="str">
         <f>alunos!B30</f>
-        <v>Víctor Henrique Santana Alves</v>
+        <v>Giuseppe de Moraes Vieira</v>
       </c>
       <c r="C31">
         <v>29</v>
       </c>
-      <c r="D31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" t="s">
-        <v>33</v>
-      </c>
       <c r="G31" t="s">
-        <v>33</v>
-      </c>
-      <c r="AU31" s="2"/>
-      <c r="AV31" s="2"/>
-      <c r="AW31" s="2"/>
-      <c r="AZ31" s="5"/>
-      <c r="BA31" s="5"/>
-      <c r="BB31" s="5"/>
-      <c r="BC31" s="5"/>
-      <c r="BD31" s="5"/>
-      <c r="BE31" s="5"/>
-      <c r="BF31" s="5"/>
-      <c r="BG31" s="5"/>
-      <c r="BH31" s="5"/>
-      <c r="BI31" s="5"/>
-      <c r="BJ31" s="5"/>
-      <c r="BK31" s="5"/>
-      <c r="BL31" s="5"/>
-      <c r="BM31" s="5"/>
-      <c r="BN31" s="5"/>
-      <c r="BO31" s="5"/>
-      <c r="BP31" s="5"/>
-      <c r="BQ31" s="5"/>
-      <c r="BR31" s="5"/>
-      <c r="BS31" s="5"/>
-      <c r="BT31" s="5"/>
-      <c r="BU31" s="5"/>
-      <c r="BV31" s="5"/>
-      <c r="BW31" s="5"/>
-      <c r="BX31" s="5"/>
-      <c r="BY31" s="5"/>
-      <c r="BZ31" s="5"/>
-      <c r="CA31" s="5"/>
-      <c r="CB31" s="5"/>
-      <c r="CC31" s="5"/>
-      <c r="CD31" s="5"/>
-      <c r="CE31" s="5"/>
-      <c r="CF31" s="5"/>
-      <c r="CG31" s="5"/>
-      <c r="CH31" s="5"/>
-      <c r="CI31" s="5"/>
-      <c r="CJ31" s="5"/>
-      <c r="CK31" s="5"/>
-      <c r="CL31" s="5"/>
-      <c r="CM31" s="5"/>
-      <c r="CN31" s="5"/>
-      <c r="CO31" s="5"/>
-      <c r="CP31" s="5"/>
-      <c r="CQ31" s="5"/>
-      <c r="CR31" s="5"/>
-      <c r="CS31" s="5"/>
-      <c r="CT31" s="5"/>
-      <c r="CU31" s="5"/>
-      <c r="CV31" s="5"/>
-      <c r="CW31" s="5"/>
-      <c r="CX31" s="5"/>
-      <c r="CY31" s="5"/>
-      <c r="CZ31" s="5"/>
-      <c r="DA31" s="5"/>
-      <c r="DB31" s="5"/>
-      <c r="DC31" s="5"/>
-      <c r="DD31" s="5"/>
-      <c r="DE31" s="5"/>
-      <c r="DF31" s="5"/>
-      <c r="DG31" s="5"/>
-      <c r="DH31" s="5"/>
-      <c r="DI31" s="5"/>
-      <c r="DJ31" s="5"/>
-      <c r="DK31" s="5"/>
-      <c r="DL31" s="5"/>
-      <c r="DM31" s="5"/>
-      <c r="DN31" s="5"/>
-      <c r="DO31" s="5"/>
-      <c r="DP31" s="5"/>
-      <c r="DQ31" s="5"/>
-      <c r="DR31" s="5"/>
-      <c r="DS31" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="32" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -3631,137 +3635,40 @@
       </c>
       <c r="B32" t="str">
         <f>alunos!B31</f>
-        <v>Vitória Bueno da Silva</v>
+        <v>Samyra Leite da Silva Ferreira</v>
       </c>
       <c r="C32">
         <v>30</v>
       </c>
-      <c r="D32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" t="s">
-        <v>33</v>
-      </c>
       <c r="G32" t="s">
-        <v>33</v>
-      </c>
-      <c r="AU32" s="2"/>
-      <c r="AV32" s="2"/>
-      <c r="AW32" s="2"/>
-      <c r="AZ32" s="5"/>
-      <c r="BA32" s="5"/>
-      <c r="BB32" s="5"/>
-      <c r="BC32" s="5"/>
-      <c r="BD32" s="5"/>
-      <c r="BE32" s="5"/>
-      <c r="BF32" s="5"/>
-      <c r="BG32" s="5"/>
-      <c r="BH32" s="5"/>
-      <c r="BI32" s="5"/>
-      <c r="BJ32" s="5"/>
-      <c r="BK32" s="5"/>
-      <c r="BL32" s="5"/>
-      <c r="BM32" s="5"/>
-      <c r="BN32" s="5"/>
-      <c r="BO32" s="5"/>
-      <c r="BP32" s="5"/>
-      <c r="BQ32" s="5"/>
-      <c r="BR32" s="5"/>
-      <c r="BS32" s="5"/>
-      <c r="BT32" s="5"/>
-      <c r="BU32" s="5"/>
-      <c r="BV32" s="5"/>
-      <c r="BW32" s="5"/>
-      <c r="BX32" s="5"/>
-      <c r="BY32" s="5"/>
-      <c r="BZ32" s="5"/>
-      <c r="CA32" s="5"/>
-      <c r="CB32" s="5"/>
-      <c r="CC32" s="5"/>
-      <c r="CD32" s="5"/>
-      <c r="CE32" s="5"/>
-      <c r="CF32" s="5"/>
-      <c r="CG32" s="5"/>
-      <c r="CH32" s="5"/>
-      <c r="CI32" s="5"/>
-      <c r="CJ32" s="5"/>
-      <c r="CK32" s="5"/>
-      <c r="CL32" s="5"/>
-      <c r="CM32" s="5"/>
-      <c r="CN32" s="5"/>
-      <c r="CO32" s="5"/>
-      <c r="CP32" s="5"/>
-      <c r="CQ32" s="5"/>
-      <c r="CR32" s="5"/>
-      <c r="CS32" s="5"/>
-      <c r="CT32" s="5"/>
-      <c r="CU32" s="5"/>
-      <c r="CV32" s="5"/>
-      <c r="CW32" s="5"/>
-      <c r="CX32" s="5"/>
-      <c r="CY32" s="5"/>
-      <c r="CZ32" s="5"/>
-      <c r="DA32" s="5"/>
-      <c r="DB32" s="5"/>
-      <c r="DC32" s="5"/>
-      <c r="DD32" s="5"/>
-      <c r="DE32" s="5"/>
-      <c r="DF32" s="5"/>
-      <c r="DG32" s="5"/>
-      <c r="DH32" s="5"/>
-      <c r="DI32" s="5"/>
-      <c r="DJ32" s="5"/>
-      <c r="DK32" s="5"/>
-      <c r="DL32" s="5"/>
-      <c r="DM32" s="5"/>
-      <c r="DN32" s="5"/>
-      <c r="DO32" s="5"/>
-      <c r="DP32" s="5"/>
-      <c r="DQ32" s="5"/>
-      <c r="DR32" s="5"/>
-      <c r="DS32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="H32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>alunos!A32</f>
         <v>0</v>
       </c>
       <c r="B33" t="str">
         <f>alunos!B32</f>
-        <v>Giuseppe de Moraes Vieira</v>
+        <v>Carolina da Silva Santos</v>
       </c>
       <c r="C33">
         <v>31</v>
       </c>
-      <c r="G33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f>alunos!A33</f>
-        <v>0</v>
-      </c>
-      <c r="B34" t="str">
-        <f>alunos!B33</f>
-        <v>Samyra Leite da Silva Ferreira</v>
-      </c>
-      <c r="C34">
-        <v>32</v>
-      </c>
-      <c r="G34" t="s">
-        <v>33</v>
+      <c r="H33" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B32">
-    <sortCondition ref="B3:B32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B30">
+    <sortCondition ref="B3:B30"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="D3:AZ3 BE3:DG3 BB3:BB22 F4:AZ10 BE4:BJ10 D4:E23 BK4:DG32 F11:BA22 BC11:BJ22 F23:BJ23 D24:BJ32 G33:G34">
+  <conditionalFormatting sqref="D3:AZ3 BE3:DG3 BB3:BB21 F4:AZ9 BE4:BJ9 D4:E22 BK4:DG30 F10:BA21 BC10:BJ21 F22:BJ22 D23:BJ30 G31:H32 H33">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -3773,10 +3680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA43B27-548D-428E-B1BF-5E790279A96A}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3937,22 +3844,17 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3963,10 +3865,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4DDCA2-EB43-4FE7-A5F4-0E4DC176FDD0}">
-  <dimension ref="A2:A32"/>
+  <dimension ref="A2:A33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4012,151 +3914,157 @@
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>alunos!B7</f>
-        <v>Enzo Matanovic</v>
+        <v>Gabriela Leticia da Silva</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>alunos!B8</f>
-        <v>Gabriela Leticia da Silva</v>
+        <v>Geovanna Martins Bertuol</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>alunos!B9</f>
-        <v>Geovanna Martins Bertuol</v>
+        <v>Giulia de Godoi Silveira</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>alunos!B10</f>
-        <v>Giulia de Godoi Silveira</v>
+        <v>Gustavo Ferelli</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>alunos!B11</f>
-        <v>Gustavo Ferelli</v>
+        <v>Heitor Dorigan de Angeli</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>alunos!B12</f>
-        <v>Heitor Dorigan de Angeli</v>
+        <v>Helena Politti Rossi</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>alunos!B13</f>
-        <v>Helena Politti Rossi</v>
+        <v>Isabela Marchiori Ferreira</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>alunos!B14</f>
-        <v>Isabela Marchiori Ferreira</v>
+        <v>Isabelle Caroline Vizeu de Salles</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>alunos!B15</f>
-        <v>Isabelle Caroline Vizeu de Salles</v>
+        <v>Leandro Imenes de Oliveira</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>alunos!B16</f>
-        <v>Leandro Imenes de Oliveira</v>
+        <v>Letícia Aparecida Pinto de Souza</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>alunos!B17</f>
-        <v>Letícia Aparecida Pinto de Souza</v>
+        <v>Luana Gabrielle de Oliveira</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>alunos!B18</f>
-        <v>Luana Gabrielle de Oliveira</v>
+        <v>Marina Henrique Moretti</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>alunos!B19</f>
-        <v>Marina Henrique Moretti</v>
+        <v>Matheus Dorigan Paiato</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>alunos!B20</f>
-        <v>Matheus Dorigan Paiato</v>
+        <v>Maycon Silva Gonçalves de Lima</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>alunos!B21</f>
-        <v>Maycon Silva Gonçalves de Lima</v>
+        <v>Nicolas Augusto dos Reis Lira</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>alunos!B22</f>
-        <v>Nicolas Augusto dos Reis Lira</v>
+        <v>Otávio Augusto Barbosa</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>alunos!B23</f>
-        <v>Otávio Augusto Barbosa</v>
+        <v>Pedro Henrique Souza Guarizo</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>alunos!B24</f>
-        <v>Otávio Zaneti Ramos</v>
+        <v>Renan Pavan Fazullo</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>alunos!B25</f>
-        <v>Pedro Henrique Souza Guarizo</v>
+        <v>Sara de Paula Souza</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>alunos!B26</f>
-        <v>Renan Pavan Fazullo</v>
+        <v>Sofia Ohashi Faria</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>alunos!B27</f>
-        <v>Sara de Paula Souza</v>
+        <v>Tobias Gabriel Bueno de Godoi</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>alunos!B28</f>
-        <v>Sofia Ohashi Faria</v>
+        <v>Víctor Henrique Santana Alves</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>alunos!B29</f>
-        <v>Tobias Gabriel Bueno de Godoi</v>
+        <v>Vitória Bueno da Silva</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>alunos!B30</f>
-        <v>Víctor Henrique Santana Alves</v>
+        <v>Giuseppe de Moraes Vieira</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>alunos!B31</f>
-        <v>Vitória Bueno da Silva</v>
+        <v>Samyra Leite da Silva Ferreira</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>alunos!B32</f>
+        <v>Carolina da Silva Santos</v>
       </c>
     </row>
   </sheetData>

--- a/ds/turmas/1DES_A/frequencia-2-A.xlsx
+++ b/ds/turmas/1DES_A/frequencia-2-A.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\1DES_A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1089986\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C450F0F4-4F65-491B-9A4B-E0A1944A86C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D61EE11-12FF-4F52-8C29-80691A20A51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -158,7 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +192,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -214,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -223,12 +231,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -521,7 +540,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +569,9 @@
       <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -659,7 +680,9 @@
       <c r="H2" s="1">
         <v>46063</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1">
+        <v>46065</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -750,6 +773,9 @@
         <v>31</v>
       </c>
       <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
         <v>31</v>
       </c>
       <c r="AU3" s="2"/>
@@ -855,6 +881,9 @@
       <c r="H4" t="s">
         <v>31</v>
       </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
@@ -958,6 +987,9 @@
       <c r="H5" t="s">
         <v>31</v>
       </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
@@ -1061,6 +1093,9 @@
       <c r="H6" t="s">
         <v>31</v>
       </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
@@ -1164,6 +1199,9 @@
       <c r="H7" t="s">
         <v>31</v>
       </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
@@ -1267,6 +1305,9 @@
       <c r="H8" t="s">
         <v>31</v>
       </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
@@ -1370,6 +1411,9 @@
       <c r="H9" t="s">
         <v>31</v>
       </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -1473,6 +1517,9 @@
       <c r="H10" t="s">
         <v>31</v>
       </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -1576,6 +1623,9 @@
       <c r="H11" t="s">
         <v>31</v>
       </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
@@ -1679,6 +1729,9 @@
       <c r="H12" t="s">
         <v>32</v>
       </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
@@ -1782,6 +1835,10 @@
       <c r="H13" t="s">
         <v>31</v>
       </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="8"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
@@ -1885,6 +1942,9 @@
       <c r="H14" t="s">
         <v>31</v>
       </c>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
@@ -1988,6 +2048,9 @@
       <c r="H15" t="s">
         <v>31</v>
       </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
@@ -2091,6 +2154,9 @@
       <c r="H16" t="s">
         <v>31</v>
       </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
@@ -2194,6 +2260,9 @@
       <c r="H17" t="s">
         <v>31</v>
       </c>
+      <c r="I17" t="s">
+        <v>31</v>
+      </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
@@ -2297,6 +2366,9 @@
       <c r="H18" t="s">
         <v>31</v>
       </c>
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
@@ -2400,6 +2472,9 @@
       <c r="H19" t="s">
         <v>31</v>
       </c>
+      <c r="I19" t="s">
+        <v>31</v>
+      </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
@@ -2503,6 +2578,9 @@
       <c r="H20" t="s">
         <v>31</v>
       </c>
+      <c r="I20" t="s">
+        <v>31</v>
+      </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
@@ -2606,6 +2684,9 @@
       <c r="H21" t="s">
         <v>31</v>
       </c>
+      <c r="I21" t="s">
+        <v>31</v>
+      </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
@@ -2709,6 +2790,9 @@
       <c r="H22" t="s">
         <v>31</v>
       </c>
+      <c r="I22" t="s">
+        <v>31</v>
+      </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
@@ -2812,6 +2896,9 @@
       <c r="H23" t="s">
         <v>31</v>
       </c>
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
@@ -2915,6 +3002,9 @@
       <c r="H24" t="s">
         <v>31</v>
       </c>
+      <c r="I24" t="s">
+        <v>31</v>
+      </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
@@ -3018,6 +3108,9 @@
       <c r="H25" t="s">
         <v>31</v>
       </c>
+      <c r="I25" t="s">
+        <v>31</v>
+      </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
@@ -3121,6 +3214,9 @@
       <c r="H26" t="s">
         <v>31</v>
       </c>
+      <c r="I26" t="s">
+        <v>31</v>
+      </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
@@ -3224,6 +3320,9 @@
       <c r="H27" t="s">
         <v>31</v>
       </c>
+      <c r="I27" t="s">
+        <v>31</v>
+      </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
@@ -3327,6 +3426,9 @@
       <c r="H28" t="s">
         <v>31</v>
       </c>
+      <c r="I28" t="s">
+        <v>31</v>
+      </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
@@ -3430,6 +3532,9 @@
       <c r="H29" t="s">
         <v>31</v>
       </c>
+      <c r="I29" t="s">
+        <v>31</v>
+      </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
@@ -3533,6 +3638,9 @@
       <c r="H30" t="s">
         <v>31</v>
       </c>
+      <c r="I30" t="s">
+        <v>31</v>
+      </c>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
@@ -3627,6 +3735,9 @@
       <c r="H31" t="s">
         <v>31</v>
       </c>
+      <c r="I31" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="32" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -3646,8 +3757,11 @@
       <c r="H32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>alunos!A32</f>
         <v>0</v>
@@ -3660,6 +3774,9 @@
         <v>31</v>
       </c>
       <c r="H33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3668,7 +3785,12 @@
     <sortCondition ref="B3:B30"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="D3:AZ3 BE3:DG3 BB3:BB21 F4:AZ9 BE4:BJ9 D4:E22 BK4:DG30 F10:BA21 BC10:BJ21 F22:BJ22 D23:BJ30 G31:H32 H33">
+  <conditionalFormatting sqref="D3:AZ3 BE3:DG3 BB3:BB21 F4:AZ9 BE4:BJ9 D4:E22 BK4:DG30 F10:BA21 BC10:BJ21 F22:BJ22 D23:BJ30 H33:I33">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:I32">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/ds/turmas/1DES_A/frequencia-2-A.xlsx
+++ b/ds/turmas/1DES_A/frequencia-2-A.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1089986\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\1DES_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D61EE11-12FF-4F52-8C29-80691A20A51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB171FD8-940E-49FC-8B55-EC853F5E2871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -232,6 +232,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,7 +541,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
+      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3776,7 +3777,7 @@
       <c r="H33" t="s">
         <v>31</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="9" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/turmas/1DES_A/frequencia-2-A.xlsx
+++ b/ds/turmas/1DES_A/frequencia-2-A.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\1DES_A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1089986\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB171FD8-940E-49FC-8B55-EC853F5E2871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBADF90-915C-4D22-BD89-8DE387B24E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="39">
   <si>
     <t>Aluno</t>
   </si>
@@ -153,12 +153,15 @@
   <si>
     <t>Carolina da Silva Santos</t>
   </si>
+  <si>
+    <t>carnaval</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +203,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -232,7 +242,9 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,7 +553,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,8 +585,12 @@
       <c r="I1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -684,8 +700,12 @@
       <c r="I2" s="1">
         <v>46065</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="J2" s="1">
+        <v>46070</v>
+      </c>
+      <c r="K2" s="1">
+        <v>46072</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -777,6 +797,12 @@
         <v>31</v>
       </c>
       <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
         <v>31</v>
       </c>
       <c r="AU3" s="2"/>
@@ -885,6 +911,10 @@
       <c r="I4" t="s">
         <v>31</v>
       </c>
+      <c r="J4" s="9"/>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
@@ -991,6 +1021,10 @@
       <c r="I5" t="s">
         <v>31</v>
       </c>
+      <c r="J5" s="9"/>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
@@ -1097,6 +1131,10 @@
       <c r="I6" t="s">
         <v>31</v>
       </c>
+      <c r="J6" s="9"/>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
@@ -1203,6 +1241,10 @@
       <c r="I7" t="s">
         <v>31</v>
       </c>
+      <c r="J7" s="9"/>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
@@ -1309,6 +1351,10 @@
       <c r="I8" t="s">
         <v>32</v>
       </c>
+      <c r="J8" s="9"/>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
@@ -1415,6 +1461,10 @@
       <c r="I9" t="s">
         <v>31</v>
       </c>
+      <c r="J9" s="9"/>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -1521,6 +1571,10 @@
       <c r="I10" t="s">
         <v>31</v>
       </c>
+      <c r="J10" s="9"/>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -1627,6 +1681,10 @@
       <c r="I11" t="s">
         <v>31</v>
       </c>
+      <c r="J11" s="9"/>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
@@ -1733,6 +1791,10 @@
       <c r="I12" t="s">
         <v>31</v>
       </c>
+      <c r="J12" s="9"/>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
@@ -1837,6 +1899,10 @@
         <v>31</v>
       </c>
       <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" t="s">
         <v>31</v>
       </c>
       <c r="N13" s="8"/>
@@ -1946,6 +2012,10 @@
       <c r="I14" t="s">
         <v>31</v>
       </c>
+      <c r="J14" s="9"/>
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
@@ -2052,6 +2122,10 @@
       <c r="I15" t="s">
         <v>31</v>
       </c>
+      <c r="J15" s="9"/>
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
@@ -2158,6 +2232,10 @@
       <c r="I16" t="s">
         <v>31</v>
       </c>
+      <c r="J16" s="9"/>
+      <c r="K16" t="s">
+        <v>31</v>
+      </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
@@ -2264,6 +2342,10 @@
       <c r="I17" t="s">
         <v>31</v>
       </c>
+      <c r="J17" s="9"/>
+      <c r="K17" t="s">
+        <v>31</v>
+      </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
@@ -2370,6 +2452,10 @@
       <c r="I18" t="s">
         <v>31</v>
       </c>
+      <c r="J18" s="9"/>
+      <c r="K18" t="s">
+        <v>31</v>
+      </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
@@ -2476,6 +2562,10 @@
       <c r="I19" t="s">
         <v>31</v>
       </c>
+      <c r="J19" s="9"/>
+      <c r="K19" t="s">
+        <v>31</v>
+      </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
@@ -2582,6 +2672,10 @@
       <c r="I20" t="s">
         <v>31</v>
       </c>
+      <c r="J20" s="9"/>
+      <c r="K20" t="s">
+        <v>31</v>
+      </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
@@ -2688,6 +2782,10 @@
       <c r="I21" t="s">
         <v>31</v>
       </c>
+      <c r="J21" s="9"/>
+      <c r="K21" t="s">
+        <v>31</v>
+      </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
@@ -2794,6 +2892,10 @@
       <c r="I22" t="s">
         <v>31</v>
       </c>
+      <c r="J22" s="9"/>
+      <c r="K22" t="s">
+        <v>31</v>
+      </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
@@ -2900,6 +3002,10 @@
       <c r="I23" t="s">
         <v>31</v>
       </c>
+      <c r="J23" s="9"/>
+      <c r="K23" t="s">
+        <v>31</v>
+      </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
@@ -3006,6 +3112,10 @@
       <c r="I24" t="s">
         <v>31</v>
       </c>
+      <c r="J24" s="9"/>
+      <c r="K24" t="s">
+        <v>31</v>
+      </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
@@ -3112,6 +3222,10 @@
       <c r="I25" t="s">
         <v>31</v>
       </c>
+      <c r="J25" s="9"/>
+      <c r="K25" t="s">
+        <v>31</v>
+      </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
@@ -3218,6 +3332,10 @@
       <c r="I26" t="s">
         <v>31</v>
       </c>
+      <c r="J26" s="9"/>
+      <c r="K26" t="s">
+        <v>31</v>
+      </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
@@ -3324,6 +3442,10 @@
       <c r="I27" t="s">
         <v>31</v>
       </c>
+      <c r="J27" s="9"/>
+      <c r="K27" t="s">
+        <v>31</v>
+      </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
@@ -3430,6 +3552,10 @@
       <c r="I28" t="s">
         <v>31</v>
       </c>
+      <c r="J28" s="9"/>
+      <c r="K28" t="s">
+        <v>31</v>
+      </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
@@ -3536,6 +3662,10 @@
       <c r="I29" t="s">
         <v>31</v>
       </c>
+      <c r="J29" s="9"/>
+      <c r="K29" t="s">
+        <v>31</v>
+      </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
@@ -3642,6 +3772,10 @@
       <c r="I30" t="s">
         <v>31</v>
       </c>
+      <c r="J30" s="9"/>
+      <c r="K30" t="s">
+        <v>31</v>
+      </c>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
@@ -3739,6 +3873,10 @@
       <c r="I31" t="s">
         <v>31</v>
       </c>
+      <c r="J31" s="9"/>
+      <c r="K31" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="32" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -3761,8 +3899,12 @@
       <c r="I32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="9"/>
+      <c r="K32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>alunos!A32</f>
         <v>0</v>
@@ -3777,7 +3919,11 @@
       <c r="H33" t="s">
         <v>31</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3785,8 +3931,11 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B30">
     <sortCondition ref="B3:B30"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="J3:J33"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="D3:AZ3 BE3:DG3 BB3:BB21 F4:AZ9 BE4:BJ9 D4:E22 BK4:DG30 F10:BA21 BC10:BJ21 F22:BJ22 D23:BJ30 H33:I33">
+  <conditionalFormatting sqref="D3:J3 BE3:DG3 BB3:BB21 BE4:BJ9 BK4:DG30 BC10:BJ21 D4:I30 H33:I33 K22:BJ30 K11:BA21 K31:K33 L10:BA10 L3:AZ9 K3:K10">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -3806,7 +3955,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ds/turmas/1DES_A/frequencia-2-A.xlsx
+++ b/ds/turmas/1DES_A/frequencia-2-A.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1089986\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\1DES_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBADF90-915C-4D22-BD89-8DE387B24E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF63967-0237-484C-AE7C-A93AC2032B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="40">
   <si>
     <t>Aluno</t>
   </si>
@@ -151,10 +151,13 @@
     <t>Samyra Leite da Silva Ferreira</t>
   </si>
   <si>
-    <t>Carolina da Silva Santos</t>
+    <t>carnaval</t>
   </si>
   <si>
-    <t>carnaval</t>
+    <t>Larissa Guarizo Tolloto</t>
+  </si>
+  <si>
+    <t>Liara Guarizo Tolloto</t>
   </si>
 </sst>
 </file>
@@ -547,13 +550,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DS33"/>
+  <dimension ref="A1:DS34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +594,9 @@
       <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -706,7 +711,9 @@
       <c r="K2" s="1">
         <v>46072</v>
       </c>
-      <c r="L2" s="1"/>
+      <c r="L2" s="1">
+        <v>46077</v>
+      </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -800,9 +807,12 @@
         <v>31</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
         <v>31</v>
       </c>
       <c r="AU3" s="2"/>
@@ -915,6 +925,9 @@
       <c r="K4" t="s">
         <v>31</v>
       </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
@@ -1025,6 +1038,9 @@
       <c r="K5" t="s">
         <v>31</v>
       </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
@@ -1135,6 +1151,9 @@
       <c r="K6" t="s">
         <v>31</v>
       </c>
+      <c r="L6" t="s">
+        <v>31</v>
+      </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
@@ -1245,6 +1264,9 @@
       <c r="K7" t="s">
         <v>31</v>
       </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
@@ -1355,6 +1377,9 @@
       <c r="K8" t="s">
         <v>31</v>
       </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
@@ -1465,6 +1490,9 @@
       <c r="K9" t="s">
         <v>31</v>
       </c>
+      <c r="L9" t="s">
+        <v>31</v>
+      </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -1575,6 +1603,9 @@
       <c r="K10" t="s">
         <v>31</v>
       </c>
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -1685,6 +1716,9 @@
       <c r="K11" t="s">
         <v>32</v>
       </c>
+      <c r="L11" t="s">
+        <v>31</v>
+      </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
@@ -1795,6 +1829,9 @@
       <c r="K12" t="s">
         <v>31</v>
       </c>
+      <c r="L12" t="s">
+        <v>31</v>
+      </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
@@ -1903,6 +1940,9 @@
       </c>
       <c r="J13" s="9"/>
       <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" t="s">
         <v>31</v>
       </c>
       <c r="N13" s="8"/>
@@ -2016,6 +2056,9 @@
       <c r="K14" t="s">
         <v>31</v>
       </c>
+      <c r="L14" t="s">
+        <v>31</v>
+      </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
@@ -2126,6 +2169,9 @@
       <c r="K15" t="s">
         <v>31</v>
       </c>
+      <c r="L15" t="s">
+        <v>31</v>
+      </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
@@ -2236,6 +2282,9 @@
       <c r="K16" t="s">
         <v>31</v>
       </c>
+      <c r="L16" t="s">
+        <v>31</v>
+      </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
@@ -2346,6 +2395,9 @@
       <c r="K17" t="s">
         <v>31</v>
       </c>
+      <c r="L17" t="s">
+        <v>31</v>
+      </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
@@ -2456,6 +2508,9 @@
       <c r="K18" t="s">
         <v>31</v>
       </c>
+      <c r="L18" t="s">
+        <v>31</v>
+      </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
@@ -2566,6 +2621,9 @@
       <c r="K19" t="s">
         <v>31</v>
       </c>
+      <c r="L19" t="s">
+        <v>31</v>
+      </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
@@ -2676,6 +2734,9 @@
       <c r="K20" t="s">
         <v>31</v>
       </c>
+      <c r="L20" t="s">
+        <v>31</v>
+      </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
@@ -2786,6 +2847,9 @@
       <c r="K21" t="s">
         <v>31</v>
       </c>
+      <c r="L21" t="s">
+        <v>31</v>
+      </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
@@ -2896,6 +2960,9 @@
       <c r="K22" t="s">
         <v>31</v>
       </c>
+      <c r="L22" t="s">
+        <v>31</v>
+      </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
@@ -3006,6 +3073,9 @@
       <c r="K23" t="s">
         <v>31</v>
       </c>
+      <c r="L23" t="s">
+        <v>31</v>
+      </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
@@ -3116,6 +3186,9 @@
       <c r="K24" t="s">
         <v>31</v>
       </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
@@ -3226,6 +3299,9 @@
       <c r="K25" t="s">
         <v>31</v>
       </c>
+      <c r="L25" t="s">
+        <v>31</v>
+      </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
@@ -3336,6 +3412,9 @@
       <c r="K26" t="s">
         <v>31</v>
       </c>
+      <c r="L26" t="s">
+        <v>31</v>
+      </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
@@ -3446,6 +3525,9 @@
       <c r="K27" t="s">
         <v>31</v>
       </c>
+      <c r="L27" t="s">
+        <v>31</v>
+      </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
@@ -3556,6 +3638,9 @@
       <c r="K28" t="s">
         <v>31</v>
       </c>
+      <c r="L28" t="s">
+        <v>31</v>
+      </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
@@ -3666,6 +3751,9 @@
       <c r="K29" t="s">
         <v>31</v>
       </c>
+      <c r="L29" t="s">
+        <v>31</v>
+      </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
@@ -3776,6 +3864,9 @@
       <c r="K30" t="s">
         <v>31</v>
       </c>
+      <c r="L30" t="s">
+        <v>31</v>
+      </c>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
@@ -3877,6 +3968,9 @@
       <c r="K31" t="s">
         <v>31</v>
       </c>
+      <c r="L31" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="32" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -3903,27 +3997,40 @@
       <c r="K32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>alunos!A32</f>
         <v>0</v>
       </c>
       <c r="B33" t="str">
         <f>alunos!B32</f>
-        <v>Carolina da Silva Santos</v>
+        <v>Larissa Guarizo Tolloto</v>
       </c>
       <c r="C33">
         <v>31</v>
       </c>
-      <c r="H33" t="s">
-        <v>31</v>
-      </c>
-      <c r="I33" t="s">
-        <v>31</v>
-      </c>
       <c r="J33" s="9"/>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>alunos!A33</f>
+        <v>0</v>
+      </c>
+      <c r="B34" t="str">
+        <f>alunos!B33</f>
+        <v>Liara Guarizo Tolloto</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="L34" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3935,7 +4042,7 @@
     <mergeCell ref="J3:J33"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="D3:J3 BE3:DG3 BB3:BB21 BE4:BJ9 BK4:DG30 BC10:BJ21 D4:I30 H33:I33 K22:BJ30 K11:BA21 K31:K33 L10:BA10 L3:AZ9 K3:K10">
+  <conditionalFormatting sqref="D3:J3 BE3:DG3 L3:AZ9 K3:K10 BB3:BB21 BE4:BJ9 D4:I30 BK4:DG30 L10:BA10 BC10:BJ21 K11:BA21 K22:BJ30 K31:K33 H33:I33 L31:L34">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -3952,10 +4059,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA43B27-548D-428E-B1BF-5E790279A96A}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4126,7 +4233,12 @@
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4336,7 +4448,7 @@
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>alunos!B32</f>
-        <v>Carolina da Silva Santos</v>
+        <v>Larissa Guarizo Tolloto</v>
       </c>
     </row>
   </sheetData>

--- a/ds/turmas/1DES_A/frequencia-2-A.xlsx
+++ b/ds/turmas/1DES_A/frequencia-2-A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\1DES_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF63967-0237-484C-AE7C-A93AC2032B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6195C8-ECE6-4F2F-B418-A61E35422928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,7 +556,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,6 +1606,10 @@
       <c r="L10" t="s">
         <v>31</v>
       </c>
+      <c r="N10">
+        <f ca="1">RANDBETWEEN(1,32)</f>
+        <v>28</v>
+      </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -4042,7 +4046,7 @@
     <mergeCell ref="J3:J33"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="D3:J3 BE3:DG3 L3:AZ9 K3:K10 BB3:BB21 BE4:BJ9 D4:I30 BK4:DG30 L10:BA10 BC10:BJ21 K11:BA21 K22:BJ30 K31:K33 H33:I33 L31:L34">
+  <conditionalFormatting sqref="D3:J3 BE3:DG3 L3:AZ9 K3:K10 BB3:BB21 BE4:BJ9 D4:I30 BK4:DG30 L10:BA10 BC10:BJ21 K11:BA21 K22:BJ30 K31:K33 L31:L34 H33:I33">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/ds/turmas/1DES_A/frequencia-2-A.xlsx
+++ b/ds/turmas/1DES_A/frequencia-2-A.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\1DES_A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1089986\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6195C8-ECE6-4F2F-B418-A61E35422928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A9F98FD-10E2-410B-8537-BD64D9F7B231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="41">
   <si>
     <t>Aluno</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Liara Guarizo Tolloto</t>
+  </si>
+  <si>
+    <t>4P/4F</t>
   </si>
 </sst>
 </file>
@@ -556,7 +559,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomRight" activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,7 +1611,7 @@
       </c>
       <c r="N10">
         <f ca="1">RANDBETWEEN(1,32)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
@@ -2174,7 +2177,7 @@
         <v>31</v>
       </c>
       <c r="L15" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
@@ -2513,7 +2516,7 @@
         <v>31</v>
       </c>
       <c r="L18" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
@@ -4046,7 +4049,7 @@
     <mergeCell ref="J3:J33"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="D3:J3 BE3:DG3 L3:AZ9 K3:K10 BB3:BB21 BE4:BJ9 D4:I30 BK4:DG30 L10:BA10 BC10:BJ21 K11:BA21 K22:BJ30 K31:K33 L31:L34 H33:I33">
+  <conditionalFormatting sqref="D3:J3 BE3:DG3 L3:AZ9 K3:K10 BB3:BB21 BE4:BJ9 D4:I30 BK4:DG30 L10:BA10 BC10:BJ21 K22:BJ30 K31:K33 L31:L34 H33:I33 K11:BA21">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/ds/turmas/1DES_A/frequencia-2-A.xlsx
+++ b/ds/turmas/1DES_A/frequencia-2-A.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1089986\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\1DES_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A9F98FD-10E2-410B-8537-BD64D9F7B231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796190ED-19A5-4826-88A9-ABE2A700F528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="41">
   <si>
     <t>Aluno</t>
   </si>
@@ -559,7 +559,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S26" sqref="S26"/>
+      <selection pane="bottomRight" activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +600,9 @@
       <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -717,7 +719,9 @@
       <c r="L2" s="1">
         <v>46077</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="M2" s="1">
+        <v>46079</v>
+      </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -816,6 +820,9 @@
         <v>31</v>
       </c>
       <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
         <v>31</v>
       </c>
       <c r="AU3" s="2"/>
@@ -931,6 +938,9 @@
       <c r="L4" t="s">
         <v>31</v>
       </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
@@ -1044,6 +1054,9 @@
       <c r="L5" t="s">
         <v>31</v>
       </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
@@ -1157,6 +1170,9 @@
       <c r="L6" t="s">
         <v>31</v>
       </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
@@ -1270,6 +1286,9 @@
       <c r="L7" t="s">
         <v>31</v>
       </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
@@ -1383,6 +1402,9 @@
       <c r="L8" t="s">
         <v>31</v>
       </c>
+      <c r="M8" t="s">
+        <v>31</v>
+      </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
@@ -1496,6 +1518,9 @@
       <c r="L9" t="s">
         <v>31</v>
       </c>
+      <c r="M9" t="s">
+        <v>31</v>
+      </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -1609,9 +1634,8 @@
       <c r="L10" t="s">
         <v>31</v>
       </c>
-      <c r="N10">
-        <f ca="1">RANDBETWEEN(1,32)</f>
-        <v>25</v>
+      <c r="M10" t="s">
+        <v>31</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
@@ -1726,6 +1750,9 @@
       <c r="L11" t="s">
         <v>31</v>
       </c>
+      <c r="M11" t="s">
+        <v>31</v>
+      </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
@@ -1839,6 +1866,9 @@
       <c r="L12" t="s">
         <v>31</v>
       </c>
+      <c r="M12" t="s">
+        <v>31</v>
+      </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
@@ -1950,6 +1980,9 @@
         <v>31</v>
       </c>
       <c r="L13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" t="s">
         <v>31</v>
       </c>
       <c r="N13" s="8"/>
@@ -2066,6 +2099,9 @@
       <c r="L14" t="s">
         <v>31</v>
       </c>
+      <c r="M14" t="s">
+        <v>31</v>
+      </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
@@ -2179,6 +2215,9 @@
       <c r="L15" t="s">
         <v>40</v>
       </c>
+      <c r="M15" t="s">
+        <v>31</v>
+      </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
@@ -2292,6 +2331,9 @@
       <c r="L16" t="s">
         <v>31</v>
       </c>
+      <c r="M16" t="s">
+        <v>31</v>
+      </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
@@ -2405,6 +2447,9 @@
       <c r="L17" t="s">
         <v>31</v>
       </c>
+      <c r="M17" t="s">
+        <v>31</v>
+      </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
@@ -2518,6 +2563,9 @@
       <c r="L18" t="s">
         <v>40</v>
       </c>
+      <c r="M18" t="s">
+        <v>31</v>
+      </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
@@ -2631,6 +2679,9 @@
       <c r="L19" t="s">
         <v>31</v>
       </c>
+      <c r="M19" t="s">
+        <v>31</v>
+      </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
@@ -2744,6 +2795,9 @@
       <c r="L20" t="s">
         <v>31</v>
       </c>
+      <c r="M20" t="s">
+        <v>31</v>
+      </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
@@ -2857,6 +2911,9 @@
       <c r="L21" t="s">
         <v>31</v>
       </c>
+      <c r="M21" t="s">
+        <v>31</v>
+      </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
@@ -2970,6 +3027,9 @@
       <c r="L22" t="s">
         <v>31</v>
       </c>
+      <c r="M22" t="s">
+        <v>31</v>
+      </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
@@ -3083,6 +3143,9 @@
       <c r="L23" t="s">
         <v>31</v>
       </c>
+      <c r="M23" t="s">
+        <v>31</v>
+      </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
@@ -3196,6 +3259,9 @@
       <c r="L24" t="s">
         <v>31</v>
       </c>
+      <c r="M24" t="s">
+        <v>31</v>
+      </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
@@ -3309,6 +3375,9 @@
       <c r="L25" t="s">
         <v>31</v>
       </c>
+      <c r="M25" t="s">
+        <v>31</v>
+      </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
@@ -3422,6 +3491,9 @@
       <c r="L26" t="s">
         <v>31</v>
       </c>
+      <c r="M26" t="s">
+        <v>31</v>
+      </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
@@ -3535,6 +3607,9 @@
       <c r="L27" t="s">
         <v>31</v>
       </c>
+      <c r="M27" t="s">
+        <v>31</v>
+      </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
@@ -3648,6 +3723,9 @@
       <c r="L28" t="s">
         <v>31</v>
       </c>
+      <c r="M28" t="s">
+        <v>31</v>
+      </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
@@ -3761,6 +3839,9 @@
       <c r="L29" t="s">
         <v>31</v>
       </c>
+      <c r="M29" t="s">
+        <v>31</v>
+      </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
@@ -3874,6 +3955,9 @@
       <c r="L30" t="s">
         <v>31</v>
       </c>
+      <c r="M30" t="s">
+        <v>31</v>
+      </c>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
@@ -3978,6 +4062,9 @@
       <c r="L31" t="s">
         <v>31</v>
       </c>
+      <c r="M31" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="32" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -4007,8 +4094,11 @@
       <c r="L32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>alunos!A32</f>
         <v>0</v>
@@ -4024,8 +4114,11 @@
       <c r="L33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>alunos!A33</f>
         <v>0</v>
@@ -4038,6 +4131,9 @@
         <v>32</v>
       </c>
       <c r="L34" t="s">
+        <v>31</v>
+      </c>
+      <c r="M34" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4049,7 +4145,7 @@
     <mergeCell ref="J3:J33"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="D3:J3 BE3:DG3 L3:AZ9 K3:K10 BB3:BB21 BE4:BJ9 D4:I30 BK4:DG30 L10:BA10 BC10:BJ21 K22:BJ30 K31:K33 L31:L34 H33:I33 K11:BA21">
+  <conditionalFormatting sqref="D3:J3 BE3:DG3 L3:AZ9 K3:K10 BB3:BB21 BE4:BJ9 D4:I30 BK4:DG30 L10:BA10 BC10:BJ21 K11:BA21 K22:BJ30 K31:K33 H33:I33 L31:M34">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
